--- a/database/BookingHistory.xlsx
+++ b/database/BookingHistory.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\src\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C4D63-1947-4744-AD79-52E1B9588DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C9B37C-550C-4B23-B6EE-FE5A26F49B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{83934A19-CB5D-49C7-89C5-6A46A7FDD360}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8710" xr2:uid="{83934A19-CB5D-49C7-89C5-6A46A7FDD360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>shinghao</t>
   </si>
   <si>
@@ -75,13 +72,39 @@
   </si>
   <si>
     <t>Avengers</t>
+  </si>
+  <si>
+    <t>bobby</t>
+  </si>
+  <si>
+    <t>9123412</t>
+  </si>
+  <si>
+    <t>bobby@gmail.com</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>shinghao@gmail.com</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>A Dog life</t>
+  </si>
+  <si>
+    <t>91234556</t>
+  </si>
+  <si>
+    <t>shinghaoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,127 +450,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77177D7-C16B-48D5-B7B1-B9ED6489238F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>48.0</v>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
